--- a/mb-pls/km2/km2_cluster2.xlsx
+++ b/mb-pls/km2/km2_cluster2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,463 +392,111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>y=PS_malade</t>
+          <t>X18x2_ABBTX_PS=0</t>
         </is>
       </c>
       <c r="B2">
-        <v>83.87096774193549</v>
+        <v>37.5</v>
       </c>
       <c r="C2">
-        <v>68.42105263157895</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E2">
-        <v>2.849467770079229E-10</v>
+        <v>6.595840887884186E-07</v>
       </c>
       <c r="F2">
-        <v>6.30675476304785</v>
+        <v>4.972900823686963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>X19x2_ABB_E=0</t>
+          <t>X12x2_MAT1FRLAV_1=0</t>
         </is>
       </c>
       <c r="B3">
-        <v>65.11627906976744</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>73.68421052631578</v>
+        <v>47.61904761904761</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1.425618920311419E-06</v>
+        <v>0.01219571395820685</v>
       </c>
       <c r="F3">
-        <v>4.821389209583734</v>
+        <v>2.506430184918219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X18x2_ABBTX_PS=0</t>
+          <t>T10_PS_EauDebi_3=1</t>
         </is>
       </c>
       <c r="B4">
-        <v>53.57142857142857</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="C4">
-        <v>78.94736842105263</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="D4">
-        <v>56.00000000000001</v>
+        <v>42</v>
       </c>
       <c r="E4">
-        <v>0.0002952676582299571</v>
+        <v>0.01256057121726784</v>
       </c>
       <c r="F4">
-        <v>3.619416858636427</v>
+        <v>2.495991215135445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>X25x1_ElvAlterChoiPers=0</t>
+          <t>X12x2_MAT1FRLAV_1=2</t>
         </is>
       </c>
       <c r="B5">
-        <v>55.31914893617022</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>68.42105263157895</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>0.0009091028687614564</v>
+        <v>0.02801783774420711</v>
       </c>
       <c r="F5">
-        <v>3.317243686250813</v>
+        <v>-2.197036525017328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A03_Pos10sVERS=1</t>
+          <t>X18x2_ABBTX_PS=1</t>
         </is>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>55.26315789473685</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>0.001172924822071966</v>
+        <v>6.595840887884186E-07</v>
       </c>
       <c r="F6">
-        <v>3.24538365587307</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>T13_ENG_milieuDegrad.x=0</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="C7">
-        <v>71.05263157894737</v>
-      </c>
-      <c r="D7">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>0.001884132427423837</v>
-      </c>
-      <c r="F7">
-        <v>3.107913441330891</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>ENG_TROU=0</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>46.47887323943662</v>
-      </c>
-      <c r="C8">
-        <v>86.8421052631579</v>
-      </c>
-      <c r="D8">
-        <v>71</v>
-      </c>
-      <c r="E8">
-        <v>0.005994622298811604</v>
-      </c>
-      <c r="F8">
-        <v>2.748075393610414</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=0</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>68.42105263157895</v>
-      </c>
-      <c r="D9">
-        <v>52</v>
-      </c>
-      <c r="E9">
-        <v>0.01113355283129913</v>
-      </c>
-      <c r="F9">
-        <v>2.538478862160606</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>X07x1_AN_CONST4_mean_3=2</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>51.28205128205128</v>
-      </c>
-      <c r="C10">
-        <v>52.63157894736842</v>
-      </c>
-      <c r="D10">
-        <v>39</v>
-      </c>
-      <c r="E10">
-        <v>0.03258770024846401</v>
-      </c>
-      <c r="F10">
-        <v>2.137126547395211</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=1</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>48.88888888888889</v>
-      </c>
-      <c r="C11">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="D11">
-        <v>45</v>
-      </c>
-      <c r="E11">
-        <v>0.04675905357362937</v>
-      </c>
-      <c r="F11">
-        <v>1.98847615552458</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>X07x1_AN_CONST4_mean_3=0</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>23.68421052631579</v>
-      </c>
-      <c r="D12">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>0.04711938644953639</v>
-      </c>
-      <c r="F12">
-        <v>-1.985225517932964</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>X09x3_FAB_CROISS_reg_rec=0</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>29.09090909090909</v>
-      </c>
-      <c r="C13">
-        <v>42.10526315789473</v>
-      </c>
-      <c r="D13">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="E13">
-        <v>0.04675905357362936</v>
-      </c>
-      <c r="F13">
-        <v>-1.98847615552458</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>X13x2_QUAI_t=1</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="D14">
-        <v>48</v>
-      </c>
-      <c r="E14">
-        <v>0.01113355283129913</v>
-      </c>
-      <c r="F14">
-        <v>-2.538478862160606</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ENG_TROU=1</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="C15">
-        <v>13.1578947368421</v>
-      </c>
-      <c r="D15">
-        <v>29</v>
-      </c>
-      <c r="E15">
-        <v>0.0059946222988116</v>
-      </c>
-      <c r="F15">
-        <v>-2.748075393610414</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>y=ENG_malade</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>0.002519996361748793</v>
-      </c>
-      <c r="F16">
-        <v>-3.020929969651967</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>T13_ENG_milieuDegrad.x=1</t>
-        </is>
-      </c>
-      <c r="B17">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="C17">
-        <v>28.94736842105263</v>
-      </c>
-      <c r="D17">
-        <v>49</v>
-      </c>
-      <c r="E17">
-        <v>0.001884132427423837</v>
-      </c>
-      <c r="F17">
-        <v>-3.107913441330891</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>y=Sain</t>
-        </is>
-      </c>
-      <c r="B18">
-        <v>13.79310344827586</v>
-      </c>
-      <c r="C18">
-        <v>10.52631578947368</v>
-      </c>
-      <c r="D18">
-        <v>29</v>
-      </c>
-      <c r="E18">
-        <v>0.001195777171588986</v>
-      </c>
-      <c r="F18">
-        <v>-3.239885473909872</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A03_Pos10sVERS=0</t>
-        </is>
-      </c>
-      <c r="B19">
-        <v>26.15384615384616</v>
-      </c>
-      <c r="C19">
-        <v>44.73684210526316</v>
-      </c>
-      <c r="D19">
-        <v>65</v>
-      </c>
-      <c r="E19">
-        <v>0.001172924822071965</v>
-      </c>
-      <c r="F19">
-        <v>-3.24538365587307</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>X25x1_ElvAlterChoiPers=1</t>
-        </is>
-      </c>
-      <c r="B20">
-        <v>22.64150943396227</v>
-      </c>
-      <c r="C20">
-        <v>31.57894736842105</v>
-      </c>
-      <c r="D20">
-        <v>53</v>
-      </c>
-      <c r="E20">
-        <v>0.0009091028687614568</v>
-      </c>
-      <c r="F20">
-        <v>-3.317243686250813</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>X18x2_ABBTX_PS=1</t>
-        </is>
-      </c>
-      <c r="B21">
-        <v>18.18181818181818</v>
-      </c>
-      <c r="C21">
-        <v>21.05263157894737</v>
-      </c>
-      <c r="D21">
-        <v>44</v>
-      </c>
-      <c r="E21">
-        <v>0.0002952676582299573</v>
-      </c>
-      <c r="F21">
-        <v>-3.619416858636426</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>X19x2_ABB_E=1</t>
-        </is>
-      </c>
-      <c r="B22">
-        <v>17.5438596491228</v>
-      </c>
-      <c r="C22">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="D22">
-        <v>56.99999999999999</v>
-      </c>
-      <c r="E22">
-        <v>1.425618920311419E-06</v>
-      </c>
-      <c r="F22">
-        <v>-4.821389209583734</v>
+        <v>-4.972900823686963</v>
       </c>
     </row>
   </sheetData>
